--- a/src/results/manually_verified_results/unified_results_44_prompts_salva_varitate_3_types manually.xlsx
+++ b/src/results/manually_verified_results/unified_results_44_prompts_salva_varitate_3_types manually.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeeesquira/PycharmProjects/possibilities/src/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeeesquira/PycharmProjects/possibilities/src/results/manually_verified_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94288F70-45AC-8F49-A31E-7EF9F1FFCD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B834DA-5724-C041-9B30-7F5EF93E2693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2907,11 +2907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F399" sqref="F399"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2951,7 +2950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3107,7 +3106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>39</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>69</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>74</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>80</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>80</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>80</v>
       </c>
@@ -3887,7 +3886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>85</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>85</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>85</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>91</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>96</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>96</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>102</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -4199,7 +4198,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
@@ -4225,7 +4224,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>107</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>107</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>113</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>113</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>113</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>118</v>
       </c>
@@ -4381,7 +4380,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>118</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>118</v>
       </c>
@@ -4433,7 +4432,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>124</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>129</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>129</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>129</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>140</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>140</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>146</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>146</v>
       </c>
@@ -4797,7 +4796,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>146</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>151</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>151</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>162</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>162</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>173</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>179</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>184</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
@@ -5447,7 +5446,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>195</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="395" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="395" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>195</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>195</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>201</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>201</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>206</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>206</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>206</v>
       </c>
@@ -5681,7 +5680,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>212</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>212</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>212</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>217</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>217</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>217</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>223</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>223</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>228</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>228</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>228</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>233</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>233</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>238</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>238</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>238</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>244</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>244</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>244</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>249</v>
       </c>
@@ -6253,7 +6252,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="395" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="395" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>249</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>249</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>255</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>255</v>
       </c>
@@ -6357,7 +6356,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>255</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>7</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>7</v>
       </c>
@@ -6435,7 +6434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>7</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>22</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>28</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>28</v>
       </c>
@@ -6617,7 +6616,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>34</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>39</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>39</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>39</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>47</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>52</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>52</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>52</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>58</v>
       </c>
@@ -6955,7 +6954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>58</v>
       </c>
@@ -6981,7 +6980,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>58</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>63</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>63</v>
       </c>
@@ -7059,7 +7058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>63</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>74</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>74</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>74</v>
       </c>
@@ -7241,7 +7240,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>80</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>80</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>80</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>85</v>
       </c>
@@ -7345,7 +7344,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>85</v>
       </c>
@@ -7371,7 +7370,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>85</v>
       </c>
@@ -7397,7 +7396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>91</v>
       </c>
@@ -7423,7 +7422,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>91</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>91</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>96</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>96</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>96</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>102</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>102</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>102</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>107</v>
       </c>
@@ -7657,7 +7656,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>107</v>
       </c>
@@ -7683,7 +7682,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>107</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>113</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>118</v>
       </c>
@@ -7813,7 +7812,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>118</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>118</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>124</v>
       </c>
@@ -7891,7 +7890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>124</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>124</v>
       </c>
@@ -7943,7 +7942,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>129</v>
       </c>
@@ -7969,7 +7968,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>129</v>
       </c>
@@ -7995,7 +7994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>129</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>140</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>140</v>
       </c>
@@ -8151,7 +8150,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>140</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>146</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>146</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>146</v>
       </c>
@@ -8255,7 +8254,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>151</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>151</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>151</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>157</v>
       </c>
@@ -8359,7 +8358,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" ht="240" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>157</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>157</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>162</v>
       </c>
@@ -8437,7 +8436,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>162</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>162</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>168</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>168</v>
       </c>
@@ -8567,7 +8566,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>173</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>173</v>
       </c>
@@ -8619,7 +8618,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>173</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>179</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>179</v>
       </c>
@@ -8723,7 +8722,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>184</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>184</v>
       </c>
@@ -8775,7 +8774,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>184</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>190</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>190</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>190</v>
       </c>
@@ -8879,7 +8878,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>195</v>
       </c>
@@ -8905,7 +8904,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>195</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>195</v>
       </c>
@@ -8957,7 +8956,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>201</v>
       </c>
@@ -8983,7 +8982,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>201</v>
       </c>
@@ -9009,7 +9008,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>201</v>
       </c>
@@ -9035,7 +9034,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>206</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>206</v>
       </c>
@@ -9087,7 +9086,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>206</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>212</v>
       </c>
@@ -9139,7 +9138,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>212</v>
       </c>
@@ -9165,7 +9164,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>212</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>217</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>217</v>
       </c>
@@ -9243,7 +9242,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>217</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>223</v>
       </c>
@@ -9295,7 +9294,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>223</v>
       </c>
@@ -9321,7 +9320,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>223</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>228</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>228</v>
       </c>
@@ -9399,7 +9398,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>228</v>
       </c>
@@ -9425,7 +9424,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>233</v>
       </c>
@@ -9451,7 +9450,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>233</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>233</v>
       </c>
@@ -9503,7 +9502,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>238</v>
       </c>
@@ -9529,7 +9528,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>238</v>
       </c>
@@ -9555,7 +9554,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>238</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>244</v>
       </c>
@@ -9607,7 +9606,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>244</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>244</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>249</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>249</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>249</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>255</v>
       </c>
@@ -9763,7 +9762,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>255</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>255</v>
       </c>
@@ -9815,7 +9814,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>7</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>7</v>
       </c>
@@ -9971,7 +9970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>28</v>
       </c>
@@ -10127,7 +10126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>39</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>39</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>39</v>
       </c>
@@ -10205,7 +10204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>47</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>52</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>52</v>
       </c>
@@ -10335,7 +10334,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>52</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>58</v>
       </c>
@@ -10439,7 +10438,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>63</v>
       </c>
@@ -10465,7 +10464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>63</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>63</v>
       </c>
@@ -10595,7 +10594,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>74</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>74</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>74</v>
       </c>
@@ -10673,7 +10672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>80</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>80</v>
       </c>
@@ -10725,7 +10724,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>80</v>
       </c>
@@ -10751,7 +10750,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>85</v>
       </c>
@@ -10777,7 +10776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>85</v>
       </c>
@@ -10803,7 +10802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>85</v>
       </c>
@@ -10829,7 +10828,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>91</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>91</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>96</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>96</v>
       </c>
@@ -10959,7 +10958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>96</v>
       </c>
@@ -10985,7 +10984,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>102</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>102</v>
       </c>
@@ -11037,7 +11036,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>102</v>
       </c>
@@ -11063,7 +11062,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>107</v>
       </c>
@@ -11089,7 +11088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>107</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>107</v>
       </c>
@@ -11141,7 +11140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>113</v>
       </c>
@@ -11167,7 +11166,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="208" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>113</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>113</v>
       </c>
@@ -11219,7 +11218,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>118</v>
       </c>
@@ -11245,7 +11244,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>118</v>
       </c>
@@ -11271,7 +11270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>118</v>
       </c>
@@ -11297,7 +11296,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>124</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>124</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>124</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>129</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>129</v>
       </c>
@@ -11427,7 +11426,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>129</v>
       </c>
@@ -11531,7 +11530,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>140</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>140</v>
       </c>
@@ -11583,7 +11582,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>140</v>
       </c>
@@ -11609,7 +11608,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>146</v>
       </c>
@@ -11635,7 +11634,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>146</v>
       </c>
@@ -11661,7 +11660,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>146</v>
       </c>
@@ -11687,7 +11686,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>151</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>151</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>151</v>
       </c>
@@ -11765,7 +11764,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>157</v>
       </c>
@@ -11791,7 +11790,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>157</v>
       </c>
@@ -11817,7 +11816,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>157</v>
       </c>
@@ -11843,7 +11842,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>162</v>
       </c>
@@ -11869,7 +11868,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>162</v>
       </c>
@@ -11895,7 +11894,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>162</v>
       </c>
@@ -11921,7 +11920,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>168</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>168</v>
       </c>
@@ -11999,7 +11998,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>173</v>
       </c>
@@ -12025,7 +12024,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>173</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>173</v>
       </c>
@@ -12155,7 +12154,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>184</v>
       </c>
@@ -12181,7 +12180,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>184</v>
       </c>
@@ -12207,7 +12206,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>184</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>190</v>
       </c>
@@ -12259,7 +12258,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="192" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>190</v>
       </c>
@@ -12311,7 +12310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>195</v>
       </c>
@@ -12337,7 +12336,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>195</v>
       </c>
@@ -12363,7 +12362,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>195</v>
       </c>
@@ -12389,7 +12388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>201</v>
       </c>
@@ -12467,7 +12466,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>206</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>206</v>
       </c>
@@ -12519,7 +12518,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>206</v>
       </c>
@@ -12545,7 +12544,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>212</v>
       </c>
@@ -12571,7 +12570,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>212</v>
       </c>
@@ -12597,7 +12596,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>212</v>
       </c>
@@ -12623,7 +12622,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>217</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" ht="128" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>217</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>217</v>
       </c>
@@ -12701,7 +12700,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>223</v>
       </c>
@@ -12779,7 +12778,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>228</v>
       </c>
@@ -12805,7 +12804,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>228</v>
       </c>
@@ -12831,7 +12830,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>228</v>
       </c>
@@ -12857,7 +12856,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>233</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>233</v>
       </c>
@@ -12909,7 +12908,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>233</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>238</v>
       </c>
@@ -12961,7 +12960,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="272" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>238</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>244</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>249</v>
       </c>
@@ -13117,7 +13116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>249</v>
       </c>
@@ -13143,7 +13142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>249</v>
       </c>
@@ -13169,7 +13168,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>255</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>255</v>
       </c>
@@ -13221,7 +13220,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>255</v>
       </c>
@@ -13248,13 +13247,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H397" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H397" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>